--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationStatementReconciliationProperties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2259,7 +2259,7 @@
         <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>83</v>
@@ -2366,7 +2366,7 @@
         <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>83</v>
@@ -2572,7 +2572,7 @@
         <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>83</v>
@@ -2681,7 +2681,7 @@
         <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>83</v>
@@ -2887,7 +2887,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>83</v>
@@ -2996,7 +2996,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>83</v>
@@ -3202,7 +3202,7 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>83</v>
@@ -3408,7 +3408,7 @@
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>143</v>
@@ -3517,7 +3517,7 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>83</v>
@@ -3723,7 +3723,7 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>83</v>
@@ -3931,7 +3931,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>143</v>
@@ -4040,7 +4040,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>83</v>
@@ -4246,7 +4246,7 @@
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>83</v>
@@ -4454,7 +4454,7 @@
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>143</v>
@@ -4563,7 +4563,7 @@
         <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>83</v>
@@ -4769,7 +4769,7 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>83</v>
@@ -4979,7 +4979,7 @@
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>143</v>
@@ -5187,7 +5187,7 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>143</v>
@@ -5395,7 +5395,7 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>143</v>
@@ -5502,7 +5502,7 @@
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>83</v>
@@ -5708,7 +5708,7 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>83</v>
@@ -5817,7 +5817,7 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>83</v>
@@ -6023,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>83</v>
@@ -6132,7 +6132,7 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>83</v>
@@ -6338,7 +6338,7 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>83</v>
@@ -6546,7 +6546,7 @@
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>143</v>
@@ -6655,7 +6655,7 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>83</v>
@@ -6861,7 +6861,7 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>83</v>
@@ -7069,7 +7069,7 @@
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>143</v>
@@ -7178,7 +7178,7 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>83</v>
@@ -7384,7 +7384,7 @@
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>83</v>
@@ -7592,7 +7592,7 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>143</v>
@@ -7701,7 +7701,7 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>83</v>
@@ -7907,7 +7907,7 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>83</v>
@@ -8115,7 +8115,7 @@
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>143</v>
@@ -8323,7 +8323,7 @@
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>143</v>
@@ -8531,7 +8531,7 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>143</v>
@@ -8640,7 +8640,7 @@
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>83</v>
@@ -8846,7 +8846,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>83</v>
@@ -8955,7 +8955,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>83</v>
@@ -9161,7 +9161,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>83</v>
@@ -9270,7 +9270,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>83</v>
@@ -9476,7 +9476,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>83</v>
@@ -9684,7 +9684,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>143</v>
@@ -9793,7 +9793,7 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>83</v>
@@ -9999,7 +9999,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>83</v>
@@ -10207,7 +10207,7 @@
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>143</v>
@@ -10316,7 +10316,7 @@
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>83</v>
@@ -10522,7 +10522,7 @@
         <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>83</v>
@@ -10730,7 +10730,7 @@
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>143</v>
@@ -10839,7 +10839,7 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>83</v>
@@ -11045,7 +11045,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>83</v>
@@ -11255,7 +11255,7 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>143</v>
@@ -11463,7 +11463,7 @@
         <v>75</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>143</v>
@@ -11671,7 +11671,7 @@
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>143</v>
@@ -11780,7 +11780,7 @@
         <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>83</v>
@@ -11986,7 +11986,7 @@
         <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>83</v>
@@ -12095,7 +12095,7 @@
         <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>83</v>
@@ -12301,7 +12301,7 @@
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>83</v>
@@ -12410,7 +12410,7 @@
         <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>83</v>
@@ -12616,7 +12616,7 @@
         <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>83</v>
@@ -12824,7 +12824,7 @@
         <v>75</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>143</v>
@@ -12933,7 +12933,7 @@
         <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>83</v>
@@ -13139,7 +13139,7 @@
         <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>83</v>
@@ -13347,7 +13347,7 @@
         <v>75</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>143</v>
@@ -13456,7 +13456,7 @@
         <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>83</v>
@@ -13662,7 +13662,7 @@
         <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>83</v>
@@ -13870,7 +13870,7 @@
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>143</v>
@@ -13979,7 +13979,7 @@
         <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>83</v>
@@ -14185,7 +14185,7 @@
         <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>83</v>
@@ -14393,7 +14393,7 @@
         <v>75</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>143</v>
@@ -14601,7 +14601,7 @@
         <v>75</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>143</v>
@@ -14809,7 +14809,7 @@
         <v>75</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>143</v>
@@ -14916,7 +14916,7 @@
         <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>83</v>
@@ -15122,7 +15122,7 @@
         <v>81</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>83</v>
@@ -15231,7 +15231,7 @@
         <v>81</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>83</v>
@@ -15437,7 +15437,7 @@
         <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>83</v>
@@ -15546,7 +15546,7 @@
         <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>83</v>
@@ -15752,7 +15752,7 @@
         <v>81</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>83</v>
@@ -15960,7 +15960,7 @@
         <v>75</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>143</v>
@@ -16069,7 +16069,7 @@
         <v>81</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>83</v>
@@ -16275,7 +16275,7 @@
         <v>81</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>83</v>
@@ -16483,7 +16483,7 @@
         <v>75</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>143</v>
@@ -16592,7 +16592,7 @@
         <v>81</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>83</v>
@@ -16798,7 +16798,7 @@
         <v>81</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>83</v>
@@ -17004,7 +17004,7 @@
         <v>75</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>143</v>
@@ -17113,7 +17113,7 @@
         <v>81</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>83</v>
@@ -17319,7 +17319,7 @@
         <v>81</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>83</v>
@@ -17529,7 +17529,7 @@
         <v>75</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>143</v>
@@ -17737,7 +17737,7 @@
         <v>75</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>143</v>
@@ -17945,7 +17945,7 @@
         <v>75</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>143</v>
@@ -18052,7 +18052,7 @@
         <v>81</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>83</v>
@@ -18258,7 +18258,7 @@
         <v>81</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>83</v>
@@ -18367,7 +18367,7 @@
         <v>81</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>83</v>
@@ -18573,7 +18573,7 @@
         <v>81</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>83</v>
@@ -18682,7 +18682,7 @@
         <v>81</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>83</v>
@@ -18888,7 +18888,7 @@
         <v>81</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>83</v>
@@ -19096,7 +19096,7 @@
         <v>75</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>143</v>
@@ -19205,7 +19205,7 @@
         <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>83</v>
@@ -19411,7 +19411,7 @@
         <v>81</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>83</v>
@@ -19619,7 +19619,7 @@
         <v>75</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>143</v>
@@ -19728,7 +19728,7 @@
         <v>81</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>83</v>
@@ -19934,7 +19934,7 @@
         <v>81</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>83</v>
@@ -20142,7 +20142,7 @@
         <v>75</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>143</v>
@@ -20251,7 +20251,7 @@
         <v>81</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>83</v>
@@ -20457,7 +20457,7 @@
         <v>81</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>83</v>
@@ -20667,7 +20667,7 @@
         <v>75</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>143</v>
@@ -20875,7 +20875,7 @@
         <v>75</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>143</v>
@@ -21083,7 +21083,7 @@
         <v>75</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>143</v>
@@ -21190,7 +21190,7 @@
         <v>81</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>83</v>
@@ -21396,7 +21396,7 @@
         <v>81</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>83</v>
@@ -21505,7 +21505,7 @@
         <v>81</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>83</v>
@@ -21711,7 +21711,7 @@
         <v>81</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>83</v>
@@ -21820,7 +21820,7 @@
         <v>81</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>83</v>
@@ -22026,7 +22026,7 @@
         <v>81</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>83</v>
@@ -22234,7 +22234,7 @@
         <v>75</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>143</v>
@@ -22343,7 +22343,7 @@
         <v>81</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>83</v>
@@ -22549,7 +22549,7 @@
         <v>81</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>83</v>
@@ -22757,7 +22757,7 @@
         <v>75</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>143</v>
@@ -22866,7 +22866,7 @@
         <v>81</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>83</v>
@@ -23072,7 +23072,7 @@
         <v>81</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>83</v>
@@ -23280,7 +23280,7 @@
         <v>75</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>143</v>
@@ -23389,7 +23389,7 @@
         <v>81</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>83</v>
@@ -23595,7 +23595,7 @@
         <v>81</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>83</v>
@@ -23805,7 +23805,7 @@
         <v>75</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>143</v>
@@ -24013,7 +24013,7 @@
         <v>75</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>143</v>
@@ -24221,7 +24221,7 @@
         <v>75</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>143</v>
@@ -24429,7 +24429,7 @@
         <v>75</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>143</v>
